--- a/templates/stitch_marker_template.xlsx
+++ b/templates/stitch_marker_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D9614E0-F422-4683-8951-703524797EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0462D02-7A86-4C4E-BEF3-4BA719248E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{39F7DAA9-447E-4A45-84A2-9B5727085CBC}"/>
   </bookViews>
@@ -727,6 +727,87 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,9 +823,6 @@
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -762,84 +840,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1039,7 +1039,6 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="Logo_Folha_de_Ponto_01">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E9292F1-F0A3-4248-B055-478A309C3641}"/>
@@ -1051,7 +1050,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1378,7 +1377,7 @@
   <dimension ref="A1:P62"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48:N48"/>
+      <selection activeCell="E4" sqref="E4:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -1402,66 +1401,66 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="83"/>
+      <c r="I2" s="83"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
     </row>
     <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="58"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
     <row r="6" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="87"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="87"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1482,23 +1481,23 @@
       <c r="P7" s="2"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="63"/>
-      <c r="G8" s="64"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="90"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="65"/>
-      <c r="K8" s="66"/>
-      <c r="L8" s="66"/>
-      <c r="M8" s="66"/>
-      <c r="N8" s="67"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="92"/>
+      <c r="M8" s="92"/>
+      <c r="N8" s="93"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
@@ -1520,36 +1519,36 @@
       <c r="P9" s="2"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68" t="s">
+      <c r="C10" s="81"/>
+      <c r="D10" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="69" t="s">
+      <c r="F10" s="81"/>
+      <c r="G10" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69" t="s">
+      <c r="H10" s="82"/>
+      <c r="I10" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
       <c r="O10" s="10"/>
       <c r="P10" s="10"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
       <c r="E11" s="43" t="s">
         <v>8</v>
       </c>
@@ -1562,12 +1561,12 @@
       <c r="H11" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="69"/>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
+      <c r="N11" s="82"/>
       <c r="O11" s="10"/>
       <c r="P11" s="10"/>
     </row>
@@ -1585,14 +1584,14 @@
       </c>
       <c r="G12" s="41"/>
       <c r="H12" s="42"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="71"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="72"/>
-      <c r="O12" s="73"/>
-      <c r="P12" s="73"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="80"/>
+      <c r="O12" s="64"/>
+      <c r="P12" s="64"/>
     </row>
     <row r="13" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="27"/>
@@ -1608,14 +1607,14 @@
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="36"/>
-      <c r="I13" s="74"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="75"/>
-      <c r="L13" s="75"/>
-      <c r="M13" s="75"/>
-      <c r="N13" s="76"/>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
     </row>
     <row r="14" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="28"/>
@@ -1631,14 +1630,14 @@
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="73"/>
-      <c r="P14" s="73"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
     </row>
     <row r="15" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
@@ -1654,14 +1653,14 @@
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="36"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="75"/>
-      <c r="M15" s="75"/>
-      <c r="N15" s="76"/>
-      <c r="O15" s="73"/>
-      <c r="P15" s="73"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
     </row>
     <row r="16" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="28"/>
@@ -1677,14 +1676,14 @@
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="38"/>
-      <c r="I16" s="77"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="73"/>
-      <c r="P16" s="73"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+      <c r="N16" s="74"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
     </row>
     <row r="17" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="27"/>
@@ -1700,14 +1699,14 @@
       </c>
       <c r="G17" s="35"/>
       <c r="H17" s="36"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="75"/>
-      <c r="M17" s="75"/>
-      <c r="N17" s="76"/>
-      <c r="O17" s="73"/>
-      <c r="P17" s="73"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="71"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
     </row>
     <row r="18" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="28"/>
@@ -1723,14 +1722,14 @@
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38"/>
-      <c r="I18" s="77"/>
-      <c r="J18" s="78"/>
-      <c r="K18" s="78"/>
-      <c r="L18" s="78"/>
-      <c r="M18" s="78"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="73"/>
-      <c r="P18" s="73"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="73"/>
+      <c r="M18" s="73"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
     </row>
     <row r="19" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="27"/>
@@ -1746,14 +1745,14 @@
       </c>
       <c r="G19" s="35"/>
       <c r="H19" s="36"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="76"/>
-      <c r="O19" s="73"/>
-      <c r="P19" s="73"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="71"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
     </row>
     <row r="20" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="28"/>
@@ -1769,14 +1768,14 @@
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="38"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="73"/>
-      <c r="P20" s="73"/>
+      <c r="I20" s="72"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="74"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
     </row>
     <row r="21" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="27"/>
@@ -1792,14 +1791,14 @@
       </c>
       <c r="G21" s="35"/>
       <c r="H21" s="36"/>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="75"/>
-      <c r="M21" s="75"/>
-      <c r="N21" s="76"/>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="71"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
     </row>
     <row r="22" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="28"/>
@@ -1815,14 +1814,14 @@
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="38"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="73"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
+      <c r="M22" s="73"/>
+      <c r="N22" s="74"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
     </row>
     <row r="23" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27"/>
@@ -1838,14 +1837,14 @@
       </c>
       <c r="G23" s="35"/>
       <c r="H23" s="36"/>
-      <c r="I23" s="74"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="75"/>
-      <c r="M23" s="75"/>
-      <c r="N23" s="76"/>
-      <c r="O23" s="73"/>
-      <c r="P23" s="73"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="71"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
     </row>
     <row r="24" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="28"/>
@@ -1861,14 +1860,14 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="38"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-      <c r="L24" s="78"/>
-      <c r="M24" s="78"/>
-      <c r="N24" s="79"/>
-      <c r="O24" s="73"/>
-      <c r="P24" s="73"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
     </row>
     <row r="25" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27"/>
@@ -1884,14 +1883,14 @@
       </c>
       <c r="G25" s="35"/>
       <c r="H25" s="36"/>
-      <c r="I25" s="74"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="76"/>
-      <c r="O25" s="73"/>
-      <c r="P25" s="73"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="71"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
     </row>
     <row r="26" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="28"/>
@@ -1907,14 +1906,14 @@
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="38"/>
-      <c r="I26" s="77"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
-      <c r="M26" s="78"/>
-      <c r="N26" s="79"/>
-      <c r="O26" s="73"/>
-      <c r="P26" s="73"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="74"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
     </row>
     <row r="27" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="27"/>
@@ -1930,14 +1929,14 @@
       </c>
       <c r="G27" s="35"/>
       <c r="H27" s="36"/>
-      <c r="I27" s="74"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="75"/>
-      <c r="N27" s="76"/>
-      <c r="O27" s="73"/>
-      <c r="P27" s="73"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="71"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
     </row>
     <row r="28" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="28"/>
@@ -1953,14 +1952,14 @@
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="38"/>
-      <c r="I28" s="77"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="78"/>
-      <c r="L28" s="78"/>
-      <c r="M28" s="78"/>
-      <c r="N28" s="79"/>
-      <c r="O28" s="73"/>
-      <c r="P28" s="73"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="73"/>
+      <c r="K28" s="73"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="73"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
     </row>
     <row r="29" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="27"/>
@@ -1976,14 +1975,14 @@
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="36"/>
-      <c r="I29" s="74"/>
-      <c r="J29" s="75"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="75"/>
-      <c r="M29" s="75"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="71"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
     </row>
     <row r="30" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="28"/>
@@ -1999,14 +1998,14 @@
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="38"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="78"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="78"/>
-      <c r="M30" s="78"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="73"/>
-      <c r="P30" s="73"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="73"/>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+      <c r="M30" s="73"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
     </row>
     <row r="31" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="27"/>
@@ -2022,14 +2021,14 @@
       </c>
       <c r="G31" s="35"/>
       <c r="H31" s="36"/>
-      <c r="I31" s="74"/>
-      <c r="J31" s="75"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="75"/>
-      <c r="M31" s="75"/>
-      <c r="N31" s="76"/>
-      <c r="O31" s="73"/>
-      <c r="P31" s="73"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="71"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
     </row>
     <row r="32" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="28"/>
@@ -2045,14 +2044,14 @@
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="38"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="78"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="78"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="73"/>
-      <c r="P32" s="73"/>
+      <c r="I32" s="72"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="74"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
     </row>
     <row r="33" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="27"/>
@@ -2068,14 +2067,14 @@
       </c>
       <c r="G33" s="35"/>
       <c r="H33" s="36"/>
-      <c r="I33" s="74"/>
-      <c r="J33" s="75"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="75"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="73"/>
-      <c r="P33" s="73"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="71"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
     </row>
     <row r="34" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="28"/>
@@ -2091,14 +2090,14 @@
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="38"/>
-      <c r="I34" s="77"/>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="79"/>
-      <c r="O34" s="73"/>
-      <c r="P34" s="73"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="74"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
     </row>
     <row r="35" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="27"/>
@@ -2114,14 +2113,14 @@
       </c>
       <c r="G35" s="35"/>
       <c r="H35" s="36"/>
-      <c r="I35" s="80"/>
-      <c r="J35" s="81"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="73"/>
-      <c r="P35" s="73"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="76"/>
+      <c r="K35" s="76"/>
+      <c r="L35" s="76"/>
+      <c r="M35" s="76"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
     </row>
     <row r="36" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="28"/>
@@ -2137,14 +2136,14 @@
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="38"/>
-      <c r="I36" s="77"/>
-      <c r="J36" s="78"/>
-      <c r="K36" s="78"/>
-      <c r="L36" s="78"/>
-      <c r="M36" s="78"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="73"/>
-      <c r="P36" s="73"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="74"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
     </row>
     <row r="37" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="27"/>
@@ -2160,14 +2159,14 @@
       </c>
       <c r="G37" s="35"/>
       <c r="H37" s="36"/>
-      <c r="I37" s="74"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="75"/>
-      <c r="M37" s="75"/>
-      <c r="N37" s="76"/>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="71"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
     </row>
     <row r="38" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="28"/>
@@ -2183,14 +2182,14 @@
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="38"/>
-      <c r="I38" s="77"/>
-      <c r="J38" s="78"/>
-      <c r="K38" s="78"/>
-      <c r="L38" s="78"/>
-      <c r="M38" s="78"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="73"/>
-      <c r="P38" s="73"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="74"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
     </row>
     <row r="39" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="27"/>
@@ -2206,14 +2205,14 @@
       </c>
       <c r="G39" s="35"/>
       <c r="H39" s="36"/>
-      <c r="I39" s="74"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="75"/>
-      <c r="N39" s="76"/>
-      <c r="O39" s="73"/>
-      <c r="P39" s="73"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="71"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
     </row>
     <row r="40" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="28"/>
@@ -2229,14 +2228,14 @@
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="38"/>
-      <c r="I40" s="77"/>
-      <c r="J40" s="78"/>
-      <c r="K40" s="78"/>
-      <c r="L40" s="78"/>
-      <c r="M40" s="78"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="74"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
     </row>
     <row r="41" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="27"/>
@@ -2252,14 +2251,14 @@
       </c>
       <c r="G41" s="35"/>
       <c r="H41" s="36"/>
-      <c r="I41" s="74"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="75"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="73"/>
-      <c r="P41" s="73"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="71"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
     </row>
     <row r="42" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="29"/>
@@ -2275,38 +2274,38 @@
       </c>
       <c r="G42" s="39"/>
       <c r="H42" s="40"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="85"/>
-      <c r="O42" s="73"/>
-      <c r="P42" s="73"/>
+      <c r="I42" s="61"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
     </row>
     <row r="43" spans="2:16" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="18"/>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="86"/>
+      <c r="E43" s="65"/>
+      <c r="F43" s="65"/>
       <c r="G43" s="45"/>
       <c r="H43" s="44"/>
       <c r="I43" s="22"/>
       <c r="J43" s="23"/>
-      <c r="K43" s="87"/>
-      <c r="L43" s="87"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
       <c r="M43" s="24"/>
       <c r="N43" s="25"/>
       <c r="O43" s="19"/>
       <c r="P43" s="19"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="89"/>
-      <c r="F44" s="89"/>
+      <c r="B44" s="67"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="22"/>
       <c r="H44" s="52" t="s">
         <v>19</v>
@@ -2314,11 +2313,9 @@
       <c r="I44" s="53"/>
       <c r="J44" s="54"/>
       <c r="K44" s="55"/>
-      <c r="L44" s="90">
-        <v>178</v>
-      </c>
-      <c r="M44" s="91"/>
-      <c r="N44" s="92"/>
+      <c r="L44" s="58"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="60"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
     </row>
@@ -2330,12 +2327,12 @@
       <c r="F45" s="1"/>
       <c r="G45" s="20"/>
       <c r="H45" s="44"/>
-      <c r="I45" s="93"/>
-      <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
-      <c r="L45" s="93"/>
-      <c r="M45" s="93"/>
-      <c r="N45" s="93"/>
+      <c r="I45" s="56"/>
+      <c r="J45" s="56"/>
+      <c r="K45" s="56"/>
+      <c r="L45" s="56"/>
+      <c r="M45" s="56"/>
+      <c r="N45" s="56"/>
       <c r="O45" s="6"/>
       <c r="P45" s="6"/>
     </row>
@@ -2352,11 +2349,9 @@
       <c r="I46" s="50"/>
       <c r="J46" s="50"/>
       <c r="K46" s="51"/>
-      <c r="L46" s="90">
-        <v>160</v>
-      </c>
-      <c r="M46" s="91"/>
-      <c r="N46" s="92"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="59"/>
+      <c r="N46" s="60"/>
       <c r="O46" s="6"/>
       <c r="P46" s="6"/>
     </row>
@@ -2390,12 +2385,12 @@
       <c r="I48" s="47"/>
       <c r="J48" s="47"/>
       <c r="K48" s="48"/>
-      <c r="L48" s="90">
+      <c r="L48" s="58">
         <f>IFERROR(L46-L44,"")</f>
-        <v>-18</v>
-      </c>
-      <c r="M48" s="91"/>
-      <c r="N48" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="M48" s="59"/>
+      <c r="N48" s="60"/>
       <c r="O48" s="6"/>
       <c r="P48" s="6"/>
     </row>
@@ -2439,22 +2434,22 @@
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="61" t="s">
+      <c r="E51" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="61"/>
-      <c r="G51" s="93"/>
+      <c r="F51" s="57"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="93" t="s">
+      <c r="I51" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="93"/>
-      <c r="K51" s="93" t="s">
+      <c r="J51" s="56"/>
+      <c r="K51" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="93"/>
-      <c r="M51" s="93"/>
-      <c r="N51" s="93"/>
+      <c r="L51" s="56"/>
+      <c r="M51" s="56"/>
+      <c r="N51" s="56"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
     </row>
@@ -2615,6 +2610,84 @@
     </row>
   </sheetData>
   <mergeCells count="85">
+    <mergeCell ref="D2:M3"/>
+    <mergeCell ref="E4:L5"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:N11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="I13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="I14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="I15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="I16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="I17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="I18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="I23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="I24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="I27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="I28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="I29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="I31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="I32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="I34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="I37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="I38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="I40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="I41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="I42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="B44:D44"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="L44:N44"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="K45:N45"/>
     <mergeCell ref="E51:G51"/>
@@ -2622,84 +2695,6 @@
     <mergeCell ref="K51:N51"/>
     <mergeCell ref="L46:N46"/>
     <mergeCell ref="L48:N48"/>
-    <mergeCell ref="I42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="B44:D44"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="L44:N44"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="I40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="I41:N41"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="I37:N37"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="I38:N38"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="I34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="I35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="I31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="I32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="I27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="I28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="I29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="I24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="I23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="I18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="I15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="I16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="I17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="I13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="I14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:N11"/>
-    <mergeCell ref="D2:M3"/>
-    <mergeCell ref="E4:L5"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="J8:N8"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:C42">
     <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="SÁB">

--- a/templates/stitch_marker_template.xlsx
+++ b/templates/stitch_marker_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\F. Martins\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04D95F4B-397C-4AEE-AAF7-F586EF6DDD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{056CE1B6-8282-42BC-9E09-11019B9BE9A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9165" yWindow="675" windowWidth="21645" windowHeight="12270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha de Ponto" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -407,35 +407,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -462,6 +450,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -476,39 +497,28 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M48"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -890,58 +900,58 @@
   <sheetData>
     <row r="1" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="1"/>
     </row>
     <row r="3" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="1"/>
     </row>
     <row r="4" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
     </row>
     <row r="6" spans="2:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -949,717 +959,698 @@
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="29"/>
       <c r="I8" t="s">
         <v>9</v>
       </c>
-      <c r="J8" s="4"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="29"/>
     </row>
     <row r="9" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8" t="s">
+      <c r="H10" s="31"/>
+      <c r="I10" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="9" t="s">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="str">
-        <f>IF(D12="D","08:00",IF(D12="N","20:00",IF(D12="FR","08:00",IF(D12="M","08:00",""))))</f>
-        <v/>
-      </c>
-      <c r="F12" s="12" t="str">
-        <f>IF(D12="D","20:00",IF(D12="N","08:00",IF(D12="FR","20:00",IF(D12="M","15:00",""))))</f>
-        <v/>
-      </c>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="str">
+        <f>IF(D12="D","08:00",IF(D12="N","20:00",IF(D12="FR","08:00",IF(D12="M","08:00",IF(OR(D12="FE",D12="BX",D12="FO",D12="FI",D12="FJ",D12="LC",D12="LN",D12="LP",D12="DP"),D12,"")))))</f>
+        <v/>
+      </c>
+      <c r="F12" s="5" t="str">
+        <f>IF(D12="D","20:00",IF(D12="N","08:00",IF(D12="FR","20:00",IF(D12="M","15:00",IF(OR(D12="FE",D12="BX",D12="FO",D12="FI",D12="FJ",D12="LC",D12="LN",D12="LP",D12="DP"),D12,"")))))</f>
+        <v/>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="str">
-        <f t="shared" ref="E13:E42" si="0">IF(D13="D","08:00",IF(D13="N","20:00",IF(D13="FR","08:00",IF(D13="M","08:00",""))))</f>
-        <v/>
-      </c>
-      <c r="F13" s="14" t="str">
-        <f t="shared" ref="F13:F42" si="1">IF(D13="D","20:00",IF(D13="N","08:00",IF(D13="FR","20:00",IF(D13="M","15:00",""))))</f>
-        <v/>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="31"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="str">
+        <f>IF(D13="D","08:00",IF(D13="N","20:00",IF(D13="FR","08:00",IF(D13="M","08:00",IF(OR(D13="FE",D13="BX",D13="FO",D13="FI",D13="FJ",D13="LC",D13="LN",D13="LP",D13="DP"),D13,"")))))</f>
+        <v/>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>IF(D13="D","20:00",IF(D13="N","08:00",IF(D13="FR","20:00",IF(D13="M","15:00",IF(OR(D13="FE",D13="BX",D13="FO",D13="FI",D13="FJ",D13="LC",D13="LN",D13="LP",D13="DP"),D13,"")))))</f>
+        <v/>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="18"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F14" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="31"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="str">
+        <f t="shared" ref="E14:E40" si="0">IF(D14="D","08:00",IF(D14="N","20:00",IF(D14="FR","08:00",IF(D14="M","08:00",IF(OR(D14="FE",D14="BX",D14="FO",D14="FI",D14="FJ",D14="LC",D14="LN",D14="LP",D14="DP"),D14,"")))))</f>
+        <v/>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f t="shared" ref="F14:F40" si="1">IF(D14="D","20:00",IF(D14="N","08:00",IF(D14="FR","20:00",IF(D14="M","15:00",IF(OR(D14="FE",D14="BX",D14="FO",D14="FI",D14="FJ",D14="LC",D14="LN",D14="LP",D14="DP"),D14,"")))))</f>
+        <v/>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="18"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="13"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F15" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="31"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="18"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="13"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F16" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="30"/>
-      <c r="L16" s="31"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F16" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="18"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B17" s="13"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F17" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="31"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F17" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="18"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F18" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="31"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="18"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F19" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="30"/>
-      <c r="L19" s="31"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="18"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F20" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="30"/>
-      <c r="L20" s="31"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="18"/>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F21" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="18"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F22" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="31"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F22" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="18"/>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F23" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="31"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F23" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="18"/>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F24" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F24" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="18"/>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F25" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="30"/>
-      <c r="L25" s="31"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F25" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="18"/>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F26" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="31"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F26" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="18"/>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F27" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="31"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F27" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="18"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F28" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="18"/>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F29" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="31"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F30" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="31"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F30" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="18"/>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F31" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="31"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F31" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="18"/>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F32" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="31"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F32" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="18"/>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F33" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="30"/>
-      <c r="K33" s="30"/>
-      <c r="L33" s="31"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F33" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="18"/>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F34" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F34" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="18"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F35" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="30"/>
-      <c r="K35" s="30"/>
-      <c r="L35" s="31"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F35" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="18"/>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F36" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="30"/>
-      <c r="K36" s="30"/>
-      <c r="L36" s="31"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F36" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="18"/>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F37" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="30"/>
-      <c r="K37" s="30"/>
-      <c r="L37" s="31"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F37" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="18"/>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F38" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="29"/>
-      <c r="J38" s="30"/>
-      <c r="K38" s="30"/>
-      <c r="L38" s="31"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F38" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="18"/>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F39" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="30"/>
-      <c r="L39" s="31"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F39" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="18"/>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F40" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="29"/>
-      <c r="J40" s="30"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="F40" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="18"/>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F41" s="14" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="29"/>
-      <c r="J41" s="30"/>
-      <c r="K41" s="30"/>
-      <c r="L41" s="31"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7" t="str">
+        <f>IF(D41="D","08:00",IF(D41="N","20:00",IF(D41="FR","08:00",IF(D41="M","08:00",IF(OR(D41="FE",D41="BX",D41="FO",D41="FI",D41="FJ",D41="LC",D41="LN",D41="LP",D41="DP"),D41,"")))))</f>
+        <v/>
+      </c>
+      <c r="F41" s="7" t="str">
+        <f>IF(D41="D","20:00",IF(D41="N","08:00",IF(D41="FR","20:00",IF(D41="M","15:00",IF(OR(D41="FE",D41="BX",D41="FO",D41="FI",D41="FJ",D41="LC",D41="LN",D41="LP",D41="DP"),D41,"")))))</f>
+        <v/>
+      </c>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="18"/>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B42" s="15"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="F42" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="27"/>
-    </row>
-    <row r="43" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="str">
+        <f>IF(D42="D","08:00",IF(D42="N","20:00",IF(D42="FR","08:00",IF(D42="M","08:00",IF(OR(D42="FE",D42="BX",D42="FO",D42="FI",D42="FJ",D42="LC",D42="LN",D42="LP",D42="DP"),D42,"")))))</f>
+        <v/>
+      </c>
+      <c r="F42" s="9" t="str">
+        <f>IF(D42="D","20:00",IF(D42="N","08:00",IF(D42="FR","20:00",IF(D42="M","15:00",IF(OR(D42="FE",D42="BX",D42="FO",D42="FI",D42="FJ",D42="LC",D42="LN",D42="LP",D42="DP"),D42,"")))))</f>
+        <v/>
+      </c>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+    </row>
+    <row r="43" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43" s="32"/>
+      <c r="K43" s="32"/>
+      <c r="L43" s="32"/>
+    </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H44" s="18" t="s">
+      <c r="H44" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="17"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="23"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="10"/>
     </row>
     <row r="45" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H46" s="21" t="s">
+      <c r="H46" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="17"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="10"/>
     </row>
     <row r="47" spans="2:12" ht="3.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="H48" s="21" t="s">
+      <c r="H48" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="21"/>
-      <c r="J48" s="21"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="28"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="K48" s="15"/>
+      <c r="L48" s="11">
+        <f>L46-L44</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="H48:K48"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="H44:K44"/>
-    <mergeCell ref="H46:K46"/>
     <mergeCell ref="D2:L3"/>
     <mergeCell ref="D4:L5"/>
     <mergeCell ref="D8:G8"/>
@@ -1669,6 +1660,40 @@
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:L11"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="H48:K48"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="H46:K46"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
